--- a/Projects/CCRU_SAND/Data/KPIs_2018/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Hypermarket PoS 2018.xlsx
@@ -67,7 +67,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$312</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$312</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3386,7 +3387,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3408,13 +3409,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3534,7 +3528,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3560,11 +3554,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -3573,11 +3563,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3585,47 +3575,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3633,27 +3623,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3661,27 +3651,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3689,32 +3679,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3790,39 +3779,39 @@
   </sheetPr>
   <dimension ref="1:312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="AB68" activeCellId="0" sqref="AB68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="31" min="30" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="38" min="35" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="41" min="39" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="38" min="35" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="41" min="39" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="2" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="941" min="44" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="942" style="3" width="9.10526315789474"/>
   </cols>
